--- a/Financial Model Building.xlsx
+++ b/Financial Model Building.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2F58EB-34ED-4CC3-86BB-8EC38118362A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB4F656C-DC84-49E0-9430-8064D74F6702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{85F0F16B-625D-49B7-842F-DFD914FD8E44}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Financial Model Building" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -779,23 +779,23 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <f>D$30*D35</f>
+        <f t="shared" ref="D7:H8" si="0">D$30*D35</f>
         <v>19500</v>
       </c>
       <c r="E7" s="5">
-        <f>E$30*E35</f>
+        <f t="shared" si="0"/>
         <v>39000</v>
       </c>
       <c r="F7" s="5">
-        <f>F$30*F35</f>
+        <f t="shared" si="0"/>
         <v>68250</v>
       </c>
       <c r="G7" s="5">
-        <f>G$30*G35</f>
+        <f t="shared" si="0"/>
         <v>102375</v>
       </c>
       <c r="H7" s="5">
-        <f>H$30*H35</f>
+        <f t="shared" si="0"/>
         <v>138206.25</v>
       </c>
     </row>
@@ -807,23 +807,23 @@
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <f>D$30*D36</f>
+        <f t="shared" si="0"/>
         <v>6750</v>
       </c>
       <c r="E8" s="5">
-        <f>E$30*E36</f>
+        <f t="shared" si="0"/>
         <v>13500</v>
       </c>
       <c r="F8" s="5">
-        <f>F$30*F36</f>
+        <f t="shared" si="0"/>
         <v>23625</v>
       </c>
       <c r="G8" s="5">
-        <f>G$30*G36</f>
+        <f t="shared" si="0"/>
         <v>35437.5</v>
       </c>
       <c r="H8" s="5">
-        <f>H$30*H36</f>
+        <f t="shared" si="0"/>
         <v>47840.625</v>
       </c>
     </row>
@@ -839,19 +839,19 @@
         <v>26250</v>
       </c>
       <c r="E9" s="33">
-        <f t="shared" ref="E9:H9" si="0">SUM(E7:E8)</f>
+        <f t="shared" ref="E9:H9" si="1">SUM(E7:E8)</f>
         <v>52500</v>
       </c>
       <c r="F9" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91875</v>
       </c>
       <c r="G9" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>137812.5</v>
       </c>
       <c r="H9" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>186046.875</v>
       </c>
     </row>
@@ -875,19 +875,19 @@
         <v>93600.000000000015</v>
       </c>
       <c r="E11" s="26">
-        <f t="shared" ref="E11:H11" si="1">E5-E9</f>
+        <f t="shared" ref="E11:H11" si="2">E5-E9</f>
         <v>187200.00000000003</v>
       </c>
       <c r="F11" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>327600.00000000006</v>
       </c>
       <c r="G11" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>491400</v>
       </c>
       <c r="H11" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>663390.00000000012</v>
       </c>
     </row>
@@ -903,19 +903,19 @@
         <v>0.78097622027534419</v>
       </c>
       <c r="E12" s="22">
-        <f t="shared" ref="E12:H12" si="2">E11/E5</f>
+        <f t="shared" ref="E12:H12" si="3">E11/E5</f>
         <v>0.78097622027534419</v>
       </c>
       <c r="F12" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78097622027534419</v>
       </c>
       <c r="G12" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78097622027534419</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78097622027534419</v>
       </c>
     </row>
@@ -946,23 +946,23 @@
         <v>0</v>
       </c>
       <c r="D15" s="5">
-        <f>D39</f>
+        <f t="shared" ref="D15:H18" si="4">D39</f>
         <v>20000</v>
       </c>
       <c r="E15" s="5">
-        <f>E39</f>
+        <f t="shared" si="4"/>
         <v>20000</v>
       </c>
       <c r="F15" s="5">
-        <f>F39</f>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="G15" s="5">
-        <f>G39</f>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
       <c r="H15" s="5">
-        <f>H39</f>
+        <f t="shared" si="4"/>
         <v>30000</v>
       </c>
     </row>
@@ -974,23 +974,23 @@
         <v>0</v>
       </c>
       <c r="D16" s="5">
-        <f>D40</f>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="E16" s="5">
-        <f>E40</f>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="F16" s="5">
-        <f>F40</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="G16" s="5">
-        <f>G40</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="H16" s="5">
-        <f>H40</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
@@ -1002,23 +1002,23 @@
         <v>0</v>
       </c>
       <c r="D17" s="5">
-        <f>D41</f>
+        <f t="shared" si="4"/>
         <v>25000</v>
       </c>
       <c r="E17" s="5">
-        <f>E41</f>
+        <f t="shared" si="4"/>
         <v>25000</v>
       </c>
       <c r="F17" s="5">
-        <f>F41</f>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="G17" s="5">
-        <f>G41</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
       <c r="H17" s="5">
-        <f>H41</f>
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
@@ -1030,23 +1030,23 @@
         <v>0</v>
       </c>
       <c r="D18" s="5">
-        <f>D42</f>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="E18" s="5">
-        <f>E42</f>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="F18" s="5">
-        <f>F42</f>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="G18" s="5">
-        <f>G42</f>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="H18" s="5">
-        <f>H42</f>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
@@ -1062,19 +1062,19 @@
         <v>100000</v>
       </c>
       <c r="E19" s="33">
-        <f t="shared" ref="E19:H19" si="3">SUM(E15:E18)</f>
+        <f t="shared" ref="E19:H19" si="5">SUM(E15:E18)</f>
         <v>100000</v>
       </c>
       <c r="F19" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>185000</v>
       </c>
       <c r="G19" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>235000</v>
       </c>
       <c r="H19" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>235000</v>
       </c>
     </row>
@@ -1098,19 +1098,19 @@
         <v>-6399.9999999999854</v>
       </c>
       <c r="E21" s="34">
-        <f t="shared" ref="E21:H21" si="4">E5-E9-E19</f>
+        <f t="shared" ref="E21:H21" si="6">E5-E9-E19</f>
         <v>87200.000000000029</v>
       </c>
       <c r="F21" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>142600.00000000006</v>
       </c>
       <c r="G21" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>256400</v>
       </c>
       <c r="H21" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>428390.00000000012</v>
       </c>
     </row>
@@ -1126,19 +1126,19 @@
         <v>-5.3400083437630246E-2</v>
       </c>
       <c r="E22" s="22">
-        <f t="shared" ref="E22:H22" si="5">E21/E5</f>
+        <f t="shared" ref="E22:H22" si="7">E21/E5</f>
         <v>0.36378806841885697</v>
       </c>
       <c r="F22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33994874545562914</v>
       </c>
       <c r="G22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.40749349385144129</v>
       </c>
       <c r="H22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.50432234885023097</v>
       </c>
     </row>
@@ -1189,19 +1189,19 @@
         <v>-6399.9999999999854</v>
       </c>
       <c r="E25" s="29">
-        <f t="shared" ref="E25:H25" si="6">IFERROR(E21-E24,E21)</f>
+        <f t="shared" ref="E25:H25" si="8">IFERROR(E21-E24,E21)</f>
         <v>69760.000000000029</v>
       </c>
       <c r="F25" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>114080.00000000004</v>
       </c>
       <c r="G25" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>205120</v>
       </c>
       <c r="H25" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>342712.00000000012</v>
       </c>
     </row>
@@ -1235,19 +1235,19 @@
         <v>3000</v>
       </c>
       <c r="E30" s="18">
-        <f t="shared" ref="E30:H30" si="7">CHOOSE($J$4,E48,E66)</f>
+        <f t="shared" ref="E30:H30" si="9">CHOOSE($J$4,E48,E66)</f>
         <v>6000</v>
       </c>
       <c r="F30" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10500</v>
       </c>
       <c r="G30" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15750</v>
       </c>
       <c r="H30" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21262.5</v>
       </c>
     </row>
@@ -1260,19 +1260,19 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="16">
-        <f t="shared" ref="D31:H31" si="8">CHOOSE($J$4,E49,E67)</f>
+        <f t="shared" ref="E31:H31" si="10">CHOOSE($J$4,E49,E67)</f>
         <v>1</v>
       </c>
       <c r="F31" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="G31" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="H31" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
     </row>
@@ -1284,23 +1284,23 @@
         <v>0</v>
       </c>
       <c r="D32" s="37">
-        <f t="shared" ref="D32:H32" si="9">CHOOSE($J$4,D50,D68)</f>
+        <f t="shared" ref="D32:H32" si="11">CHOOSE($J$4,D50,D68)</f>
         <v>39.950000000000003</v>
       </c>
       <c r="E32" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39.950000000000003</v>
       </c>
       <c r="F32" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39.950000000000003</v>
       </c>
       <c r="G32" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39.950000000000003</v>
       </c>
       <c r="H32" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39.950000000000003</v>
       </c>
     </row>
@@ -1331,23 +1331,23 @@
         <v>0</v>
       </c>
       <c r="D35" s="37">
-        <f t="shared" ref="D35:H35" si="10">CHOOSE($J$4,D53,D71)</f>
+        <f t="shared" ref="D35:H35" si="12">CHOOSE($J$4,D53,D71)</f>
         <v>6.5</v>
       </c>
       <c r="E35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
       <c r="F35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
       <c r="G35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
       <c r="H35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
     </row>
@@ -1359,23 +1359,23 @@
         <v>0</v>
       </c>
       <c r="D36" s="37">
-        <f t="shared" ref="D36:H36" si="11">CHOOSE($J$4,D54,D72)</f>
+        <f t="shared" ref="D36:H36" si="13">CHOOSE($J$4,D54,D72)</f>
         <v>2.25</v>
       </c>
       <c r="E36" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
       <c r="F36" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
       <c r="G36" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
       <c r="H36" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
     </row>
@@ -1408,23 +1408,23 @@
         <v>0</v>
       </c>
       <c r="D39" s="18">
-        <f t="shared" ref="D39:H39" si="12">CHOOSE($J$4,D57,D75)</f>
+        <f t="shared" ref="D39:H39" si="14">CHOOSE($J$4,D57,D75)</f>
         <v>20000</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20000</v>
       </c>
       <c r="F39" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>30000</v>
       </c>
       <c r="G39" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>30000</v>
       </c>
       <c r="H39" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>30000</v>
       </c>
     </row>
@@ -1436,23 +1436,23 @@
         <v>0</v>
       </c>
       <c r="D40" s="18">
-        <f t="shared" ref="D40:H40" si="13">CHOOSE($J$4,D58,D76)</f>
+        <f t="shared" ref="D40:H40" si="15">CHOOSE($J$4,D58,D76)</f>
         <v>50000</v>
       </c>
       <c r="E40" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>50000</v>
       </c>
       <c r="F40" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100000</v>
       </c>
       <c r="G40" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100000</v>
       </c>
       <c r="H40" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100000</v>
       </c>
     </row>
@@ -1464,23 +1464,23 @@
         <v>0</v>
       </c>
       <c r="D41" s="18">
-        <f t="shared" ref="D41:H41" si="14">CHOOSE($J$4,D59,D77)</f>
+        <f t="shared" ref="D41:H41" si="16">CHOOSE($J$4,D59,D77)</f>
         <v>25000</v>
       </c>
       <c r="E41" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25000</v>
       </c>
       <c r="F41" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>50000</v>
       </c>
       <c r="G41" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100000</v>
       </c>
       <c r="H41" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>100000</v>
       </c>
     </row>
@@ -1492,23 +1492,23 @@
         <v>0</v>
       </c>
       <c r="D42" s="18">
-        <f t="shared" ref="D42:H42" si="15">CHOOSE($J$4,D60,D78)</f>
+        <f t="shared" ref="D42:H42" si="17">CHOOSE($J$4,D60,D78)</f>
         <v>5000</v>
       </c>
       <c r="E42" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="F42" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="G42" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
       <c r="H42" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5000</v>
       </c>
     </row>
@@ -1528,23 +1528,23 @@
         <v>15</v>
       </c>
       <c r="D44" s="16">
-        <f t="shared" ref="D44:H44" si="16">CHOOSE($J$4,D62,D80)</f>
+        <f t="shared" ref="D44:H44" si="18">CHOOSE($J$4,D62,D80)</f>
         <v>0.2</v>
       </c>
       <c r="E44" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
       <c r="F44" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
     </row>
@@ -1581,15 +1581,15 @@
         <v>6000</v>
       </c>
       <c r="F48" s="18">
-        <f t="shared" ref="F48" si="17">E48*(1+F49)</f>
+        <f t="shared" ref="F48" si="19">E48*(1+F49)</f>
         <v>10500</v>
       </c>
       <c r="G48" s="18">
-        <f t="shared" ref="G48" si="18">F48*(1+G49)</f>
+        <f t="shared" ref="G48" si="20">F48*(1+G49)</f>
         <v>15750</v>
       </c>
       <c r="H48" s="18">
-        <f t="shared" ref="H48" si="19">G48*(1+H49)</f>
+        <f t="shared" ref="H48" si="21">G48*(1+H49)</f>
         <v>21262.5</v>
       </c>
     </row>
@@ -1859,15 +1859,15 @@
         <v>4000</v>
       </c>
       <c r="F66" s="18">
-        <f t="shared" ref="F66" si="20">E66*(1+F67)</f>
+        <f t="shared" ref="F66" si="22">E66*(1+F67)</f>
         <v>7000</v>
       </c>
       <c r="G66" s="18">
-        <f t="shared" ref="G66" si="21">F66*(1+G67)</f>
+        <f t="shared" ref="G66" si="23">F66*(1+G67)</f>
         <v>10500</v>
       </c>
       <c r="H66" s="18">
-        <f t="shared" ref="H66" si="22">G66*(1+H67)</f>
+        <f t="shared" ref="H66" si="24">G66*(1+H67)</f>
         <v>14175.000000000002</v>
       </c>
     </row>
